--- a/biology/Médecine/Sirop_(pharmacie_galénique)/Sirop_(pharmacie_galénique).xlsx
+++ b/biology/Médecine/Sirop_(pharmacie_galénique)/Sirop_(pharmacie_galénique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sirop_(pharmacie_gal%C3%A9nique)</t>
+          <t>Sirop_(pharmacie_galénique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En pharmacie galénique et selon la Pharmacopée européenne, un sirop est une forme galénique liquide utilisée pour l’administration d’au moins un principe actif de médicament par voie orale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sirop_(pharmacie_gal%C3%A9nique)</t>
+          <t>Sirop_(pharmacie_galénique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,20 +523,91 @@
           <t>Sirop avec sucre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les sirops sont des solutions aqueuses contenant du sucre et un ou plusieurs principes actifs. Ils sont caractérisés par une consistance visqueuse.
-Rôles et concentration du sucre
-Le sucre est surtout utilisé pour[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sirops sont des solutions aqueuses contenant du sucre et un ou plusieurs principes actifs. Ils sont caractérisés par une consistance visqueuse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sirop_(pharmacie_galénique)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sirop_(pharmacie_gal%C3%A9nique)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sirop avec sucre</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Rôles et concentration du sucre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le sucre est surtout utilisé pour :
 conserver le produit fini ;
 aider à masquer le goût désagréable des principes actifs ;
 améliorer le goût ;
 améliorer la consistance.
 La concentration en sucre doit être proche mais inférieure au point de sursaturation : la concentration en sucre doit être entre 65 et 67 % en masse :
 un pourcentage plus faible rend le sirop un très bon nutriment pour les micro-organismes ;
-un pourcentage plus élevé provoque la cristallisation d'une partie du sucre quand la température de stockage change.
-Autres excipients
-Les sirops peuvent aussi contenir les excipients suivant :
+un pourcentage plus élevé provoque la cristallisation d'une partie du sucre quand la température de stockage change.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sirop_(pharmacie_galénique)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sirop_(pharmacie_gal%C3%A9nique)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sirop avec sucre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres excipients</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les sirops peuvent aussi contenir les excipients suivant :
 sucres polyols comme le glycérol et le sorbitol ;saccharose
 conservateurs comme les parabens et les benzoates ;
 antioxydants comme le hydroxytoluène butylé (BHT) et le métabisulfite de sodium ;
@@ -533,9 +616,43 @@
 agents chelatants comme l'EDTA ;
 aromatisants ;
 colorants ;
-éthanol (3-4 % en volume).
-Fabrication
-Les sirops sont préparés principalement selon la méthode suivante :
+éthanol (3-4 % en volume).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sirop_(pharmacie_galénique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sirop_(pharmacie_gal%C3%A9nique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sirop avec sucre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fabrication</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les sirops sont préparés principalement selon la méthode suivante :
 dissolution des ingrédients dans de l'eau pure et parce que le sucre réduit la solubilité, il est généralement ajouté à la fin ;
 chauffage et/ou agitation active jusqu'à la dissolution de tous les ingrédients. Si au moins un des ingrédients est sensible à la chaleur, l'agitation doit avoir lieu sans chauffage ;
 élimination des impuretés par filtration, le cas échéant ;
@@ -543,31 +660,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Sirop_(pharmacie_gal%C3%A9nique)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sirop_(pharmacie_galénique)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sirop_(pharmacie_gal%C3%A9nique)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Sirop sans sucre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sirop peut aussi être sans sucre. Le sucre est alors remplacé par :
 des édulcorants comme les sucres polyols comme le glycérol, l'isomaltol, xylitol et le sorbitol ;
